--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/metrics/Trial_253__Reeval_Halton_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/metrics/Trial_253__Reeval_Halton_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6215,7 +6215,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6230,7 +6230,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6259,7 +6259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6274,7 +6274,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6303,7 +6303,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6318,7 +6318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6830,13 +6830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H787"/>
+  <dimension ref="A1:S787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6861,8 +6861,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>342.196</v>
       </c>
@@ -6887,8 +6893,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.506</v>
       </c>
@@ -6908,13 +6920,19 @@
         <v>354.9298400878906</v>
       </c>
       <c r="G3">
+        <v>373</v>
+      </c>
+      <c r="H3">
+        <v>373</v>
+      </c>
+      <c r="R3">
         <v>368</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>355.709</v>
       </c>
@@ -6934,13 +6952,19 @@
         <v>341.1759338378906</v>
       </c>
       <c r="G4">
+        <v>373</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>361.128</v>
       </c>
@@ -6960,13 +6984,19 @@
         <v>361.0189514160156</v>
       </c>
       <c r="G5">
+        <v>373</v>
+      </c>
+      <c r="H5">
+        <v>373</v>
+      </c>
+      <c r="R5">
         <v>368</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.345</v>
       </c>
@@ -6986,13 +7016,19 @@
         <v>359.9722290039062</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>373</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>368</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>331.376</v>
       </c>
@@ -7012,13 +7048,19 @@
         <v>344.9256286621094</v>
       </c>
       <c r="G7">
+        <v>373</v>
+      </c>
+      <c r="H7">
+        <v>373</v>
+      </c>
+      <c r="R7">
         <v>368</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>317.294</v>
       </c>
@@ -7038,7 +7080,7 @@
         <v>329.2504272460938</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>354.275</v>
       </c>
@@ -7058,7 +7100,7 @@
         <v>352.447021484375</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>339.738</v>
       </c>
@@ -7078,7 +7120,7 @@
         <v>352.9960021972656</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>355.403</v>
       </c>
@@ -7098,7 +7140,7 @@
         <v>353.7633361816406</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>357.053</v>
       </c>
@@ -7118,7 +7160,7 @@
         <v>357.8899536132812</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>351.338</v>
       </c>
@@ -7138,7 +7180,7 @@
         <v>348.8341674804688</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>355.857</v>
       </c>
@@ -7158,7 +7200,7 @@
         <v>338.1695556640625</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>358.131</v>
       </c>
@@ -7178,7 +7220,7 @@
         <v>356.7906799316406</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>357.205</v>
       </c>
